--- a/ResultadoEleicoesDistritos/R. A. AÇORES_CALHETA (SÃO JORGE).xlsx
+++ b/ResultadoEleicoesDistritos/R. A. AÇORES_CALHETA (SÃO JORGE).xlsx
@@ -597,64 +597,64 @@
         <v>1116</v>
       </c>
       <c r="H2" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I2" t="n">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="J2" t="n">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N2" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S2" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="T2" t="n">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="U2" t="n">
         <v>5</v>
       </c>
       <c r="V2" t="n">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>707</v>
+        <v>692</v>
       </c>
       <c r="Y2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
